--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4888" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +979,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1026,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1072,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1181,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1228,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1274,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1400,10 +1412,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1447,28 +1459,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1493,28 +1505,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1602,10 +1614,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1649,28 +1661,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1695,28 +1707,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1804,10 +1816,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1851,28 +1863,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1897,28 +1909,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2035,10 +2047,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2082,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2128,28 +2140,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2237,10 +2249,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2284,28 +2296,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2330,28 +2342,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2439,10 +2451,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2486,28 +2498,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2532,28 +2544,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2670,10 +2682,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2717,28 +2729,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2763,28 +2775,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2930,10 +2942,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2977,28 +2989,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3023,28 +3035,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3132,10 +3144,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3179,28 +3191,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3225,28 +3237,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3363,10 +3375,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3410,28 +3422,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3456,28 +3468,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3565,10 +3577,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3612,28 +3624,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3658,28 +3670,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3767,10 +3779,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3814,28 +3826,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3860,28 +3872,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3940,10 +3952,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3987,28 +3999,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4033,28 +4045,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4113,10 +4125,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4160,28 +4172,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4206,28 +4218,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4286,10 +4298,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4333,28 +4345,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4379,28 +4391,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4459,10 +4471,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4506,28 +4518,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4552,28 +4564,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4632,10 +4644,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4679,28 +4691,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4725,28 +4737,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4805,10 +4817,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4852,28 +4864,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4898,28 +4910,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4978,10 +4990,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5025,28 +5037,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5071,28 +5083,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5151,10 +5163,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5198,28 +5210,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5244,28 +5256,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5324,10 +5336,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5371,28 +5383,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5417,28 +5429,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5497,10 +5509,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5544,28 +5556,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5590,28 +5602,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5670,10 +5682,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5717,28 +5729,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5763,28 +5775,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5843,10 +5855,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5890,28 +5902,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5936,28 +5948,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6016,10 +6028,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6063,28 +6075,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6109,28 +6121,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6189,10 +6201,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6236,28 +6248,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6282,28 +6294,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6362,10 +6374,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6409,28 +6421,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6455,28 +6467,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6535,10 +6547,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6582,28 +6594,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6628,28 +6640,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6708,10 +6720,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6755,28 +6767,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6801,28 +6813,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6881,10 +6893,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6928,28 +6940,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6974,28 +6986,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7054,10 +7066,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7101,28 +7113,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7147,28 +7159,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7227,10 +7239,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7274,28 +7286,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7320,28 +7332,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7400,10 +7412,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7447,28 +7459,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7493,28 +7505,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7573,10 +7585,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7620,28 +7632,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7666,28 +7678,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7746,10 +7758,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7793,28 +7805,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7839,28 +7851,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7919,10 +7931,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7966,28 +7978,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8012,28 +8024,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8092,10 +8104,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8139,28 +8151,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8185,28 +8197,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8265,10 +8277,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8312,28 +8324,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8358,28 +8370,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8438,10 +8450,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8485,28 +8497,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8531,28 +8543,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8611,10 +8623,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8658,28 +8670,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8704,28 +8716,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8784,10 +8796,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8831,28 +8843,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8877,28 +8889,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8957,10 +8969,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9004,28 +9016,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9050,28 +9062,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9130,10 +9142,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="2" t="s">
+      <c r="J312" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9177,28 +9189,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="2">
+      <c r="A314" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="2">
+      <c r="C314" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9223,28 +9235,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="2">
+      <c r="C316" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="2">
+      <c r="D316" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="2">
+      <c r="I316" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9303,10 +9315,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9350,28 +9362,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9396,28 +9408,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9476,10 +9488,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9523,28 +9535,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9569,28 +9581,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9649,10 +9661,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="2" t="s">
+      <c r="J330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9696,28 +9708,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="2">
+      <c r="A332" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="2">
+      <c r="C332" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9742,28 +9754,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="2">
+      <c r="C334" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="2">
+      <c r="D334" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="2">
+      <c r="I334" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9880,10 +9892,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9927,28 +9939,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9973,28 +9985,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10111,10 +10123,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10158,28 +10170,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="2">
+      <c r="A348" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="2">
+      <c r="C348" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10204,28 +10216,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="2">
+      <c r="C350" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="2">
+      <c r="D350" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="2">
+      <c r="I350" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10284,10 +10296,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="2" t="s">
+      <c r="J352" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10331,28 +10343,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="2">
+      <c r="A354" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="2">
+      <c r="C354" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10377,28 +10389,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="2">
+      <c r="C356" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="2">
+      <c r="D356" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="2">
+      <c r="I356" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10486,10 +10498,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="2" t="s">
+      <c r="J359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10533,28 +10545,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
+      <c r="A361" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="2">
+      <c r="C361" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10579,28 +10591,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="2">
+      <c r="C363" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="2">
+      <c r="D363" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="2">
+      <c r="I363" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10688,10 +10700,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="2" t="s">
+      <c r="J366" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10735,28 +10747,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="2">
+      <c r="A368" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="2">
+      <c r="C368" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10781,28 +10793,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="2">
+      <c r="B370" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="2">
+      <c r="C370" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="2">
+      <c r="D370" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="2">
+      <c r="E370" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="2">
+      <c r="F370" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="2">
+      <c r="G370" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="2">
+      <c r="H370" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="2">
+      <c r="I370" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10890,10 +10902,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="2" t="s">
+      <c r="J373" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10937,28 +10949,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="2">
+      <c r="A375" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="2">
+      <c r="C375" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10983,28 +10995,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="2">
+      <c r="C377" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="2">
+      <c r="D377" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="2">
+      <c r="I377" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11092,10 +11104,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="2" t="s">
+      <c r="J380" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11139,28 +11151,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="2">
+      <c r="A382" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="2">
+      <c r="B382" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="2">
+      <c r="C382" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="2">
+      <c r="E382" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="2">
+      <c r="F382" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="2">
+      <c r="G382" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="2">
+      <c r="H382" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11185,28 +11197,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="2">
+      <c r="C384" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="2">
+      <c r="D384" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="2">
+      <c r="I384" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11294,10 +11306,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="2" t="s">
+      <c r="J387" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11341,28 +11353,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="2">
+      <c r="A389" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="2">
+      <c r="B389" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="2">
+      <c r="C389" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="2">
+      <c r="E389" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="2">
+      <c r="F389" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="2">
+      <c r="G389" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="2">
+      <c r="H389" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11387,28 +11399,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="2">
+      <c r="B391" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="2">
+      <c r="C391" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="2">
+      <c r="D391" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="2">
+      <c r="E391" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="2">
+      <c r="F391" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="2">
+      <c r="G391" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="2">
+      <c r="H391" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="2">
+      <c r="I391" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11496,10 +11508,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="2" t="s">
+      <c r="J394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11543,28 +11555,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="2">
+      <c r="A396" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="2">
+      <c r="C396" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11589,28 +11601,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="2">
+      <c r="B398" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="2">
+      <c r="C398" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="2">
+      <c r="D398" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="2">
+      <c r="E398" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="2">
+      <c r="F398" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="2">
+      <c r="G398" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="2">
+      <c r="H398" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="2">
+      <c r="I398" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11669,10 +11681,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="2" t="s">
+      <c r="J400" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11716,28 +11728,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="2">
+      <c r="A402" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="2">
+      <c r="C402" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11762,28 +11774,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="2">
+      <c r="C404" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="2">
+      <c r="D404" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="2">
+      <c r="I404" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11842,10 +11854,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="2" t="s">
+      <c r="J406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11889,28 +11901,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="2">
+      <c r="A408" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="2">
+      <c r="C408" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11935,28 +11947,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="2">
+      <c r="B410" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="2">
+      <c r="C410" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="2">
+      <c r="D410" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="2">
+      <c r="E410" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="2">
+      <c r="F410" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="2">
+      <c r="G410" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="2">
+      <c r="H410" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="2">
+      <c r="I410" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12015,10 +12027,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="2" t="s">
+      <c r="J412" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12062,28 +12074,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="2">
+      <c r="A414" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="2">
+      <c r="C414" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12108,28 +12120,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="2">
+      <c r="B416" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="2">
+      <c r="C416" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="2">
+      <c r="D416" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="2">
+      <c r="E416" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="2">
+      <c r="F416" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="2">
+      <c r="G416" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="2">
+      <c r="H416" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="2">
+      <c r="I416" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12188,10 +12200,10 @@
       <c r="I418">
         <f>((C418-C417)^2+(D418- D417)^2)^.5</f>
       </c>
-      <c r="J418" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K418" s="2" t="s">
+      <c r="J418" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K418" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L418" t="n">
@@ -12235,28 +12247,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="s" s="2">
+      <c r="A420" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C420" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D420" t="s" s="2">
+      <c r="C420" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12281,28 +12293,28 @@
       </c>
     </row>
     <row r="422">
-      <c r="B422" t="s" s="2">
+      <c r="B422" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C422" t="s" s="2">
+      <c r="C422" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D422" t="s" s="2">
+      <c r="D422" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E422" t="s" s="2">
+      <c r="E422" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F422" t="s" s="2">
+      <c r="F422" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G422" t="s" s="2">
+      <c r="G422" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H422" t="s" s="2">
+      <c r="H422" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I422" t="s" s="2">
+      <c r="I422" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12361,10 +12373,10 @@
       <c r="I424">
         <f>((C424-C423)^2+(D424- D423)^2)^.5</f>
       </c>
-      <c r="J424" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K424" s="2" t="s">
+      <c r="J424" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K424" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L424" t="n">
@@ -12408,28 +12420,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="s" s="2">
+      <c r="A426" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C426" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D426" t="s" s="2">
+      <c r="C426" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12454,28 +12466,28 @@
       </c>
     </row>
     <row r="428">
-      <c r="B428" t="s" s="2">
+      <c r="B428" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C428" t="s" s="2">
+      <c r="C428" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D428" t="s" s="2">
+      <c r="D428" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E428" t="s" s="2">
+      <c r="E428" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F428" t="s" s="2">
+      <c r="F428" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G428" t="s" s="2">
+      <c r="G428" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H428" t="s" s="2">
+      <c r="H428" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I428" t="s" s="2">
+      <c r="I428" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12534,10 +12546,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="2" t="s">
+      <c r="J430" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12581,28 +12593,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="2">
+      <c r="A432" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="2">
+      <c r="C432" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12627,28 +12639,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="2">
+      <c r="B434" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="2">
+      <c r="C434" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="2">
+      <c r="D434" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="2">
+      <c r="E434" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="2">
+      <c r="F434" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="2">
+      <c r="G434" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="2">
+      <c r="H434" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="2">
+      <c r="I434" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12707,10 +12719,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="2" t="s">
+      <c r="J436" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4888" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14664" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -431,10 +479,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -478,28 +526,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="4">
+      <c r="A12" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="4">
+      <c r="C12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -524,28 +572,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="4">
+      <c r="E14" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="4">
+      <c r="F14" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="4">
+      <c r="H14" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="4">
+      <c r="I14" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -633,10 +681,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -680,28 +728,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="4">
+      <c r="A19" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="4">
+      <c r="C19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -726,28 +774,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="4">
+      <c r="D21" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="4">
+      <c r="I21" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -806,10 +854,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="J23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -853,28 +901,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="4">
+      <c r="A25" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="B25" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="4">
+      <c r="C25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="4">
+      <c r="E25" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="4">
+      <c r="F25" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="4">
+      <c r="G25" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="4">
+      <c r="H25" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -899,28 +947,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="4">
+      <c r="B27" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="4">
+      <c r="D27" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="4">
+      <c r="E27" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="4">
+      <c r="F27" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="4">
+      <c r="G27" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="4">
+      <c r="H27" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="4">
+      <c r="I27" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -979,10 +1027,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="J29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1026,28 +1074,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="4">
+      <c r="A31" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="4">
+      <c r="C31" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1072,28 +1120,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="4">
+      <c r="I33" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1181,10 +1229,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1228,28 +1276,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="4">
+      <c r="A38" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="4">
+      <c r="C38" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1274,28 +1322,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="4">
+      <c r="D40" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="4">
+      <c r="I40" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1412,10 +1460,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="4" t="s">
+      <c r="J44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1459,28 +1507,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="4">
+      <c r="A46" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="4">
+      <c r="C46" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1505,28 +1553,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="4">
+      <c r="D48" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="4">
+      <c r="I48" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1614,10 +1662,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="4" t="s">
+      <c r="J51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1661,28 +1709,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="4">
+      <c r="A53" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="4">
+      <c r="B53" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="4">
+      <c r="C53" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="4">
+      <c r="E53" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="4">
+      <c r="F53" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="4">
+      <c r="G53" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="4">
+      <c r="H53" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1707,28 +1755,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C55" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="4">
+      <c r="D55" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="4">
+      <c r="I55" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1816,10 +1864,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="4" t="s">
+      <c r="J58" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1863,28 +1911,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="4">
+      <c r="A60" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="4">
+      <c r="C60" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1909,28 +1957,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="4">
+      <c r="C62" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="4">
+      <c r="D62" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="4">
+      <c r="I62" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2047,10 +2095,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="4" t="s">
+      <c r="J66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2094,28 +2142,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="4">
+      <c r="A68" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="4">
+      <c r="C68" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2140,28 +2188,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="4">
+      <c r="C70" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="4">
+      <c r="D70" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="4">
+      <c r="G70" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="4">
+      <c r="H70" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="4">
+      <c r="I70" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2249,10 +2297,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="4" t="s">
+      <c r="J73" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2296,28 +2344,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="4">
+      <c r="A75" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="4">
+      <c r="C75" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2342,28 +2390,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C77" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="4">
+      <c r="D77" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="4">
+      <c r="I77" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2451,10 +2499,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="4" t="s">
+      <c r="J80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2498,28 +2546,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="4">
+      <c r="A82" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="4">
+      <c r="C82" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="4">
+      <c r="G82" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="4">
+      <c r="H82" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2544,28 +2592,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="4">
+      <c r="D84" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="4">
+      <c r="I84" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2682,10 +2730,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="4" t="s">
+      <c r="J88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2729,28 +2777,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="4">
+      <c r="C90" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2775,28 +2823,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="D92" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="4">
+      <c r="G92" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="4">
+      <c r="H92" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="4">
+      <c r="I92" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2942,10 +2990,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="4" t="s">
+      <c r="J97" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2989,28 +3037,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="4">
+      <c r="A99" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="4">
+      <c r="C99" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3035,28 +3083,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="4">
+      <c r="C101" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="4">
+      <c r="D101" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="4">
+      <c r="G101" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="4">
+      <c r="H101" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="4">
+      <c r="I101" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3144,10 +3192,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="4" t="s">
+      <c r="J104" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3191,28 +3239,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="4">
+      <c r="A106" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="4">
+      <c r="C106" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="4">
+      <c r="E106" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="4">
+      <c r="F106" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="4">
+      <c r="G106" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="4">
+      <c r="H106" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3237,28 +3285,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="4">
+      <c r="C108" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="4">
+      <c r="D108" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="4">
+      <c r="I108" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3375,10 +3423,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="4" t="s">
+      <c r="J112" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3422,28 +3470,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="4">
+      <c r="A114" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="4">
+      <c r="C114" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="4">
+      <c r="G114" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="4">
+      <c r="H114" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3468,28 +3516,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="4">
+      <c r="C116" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="4">
+      <c r="D116" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="4">
+      <c r="I116" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3577,10 +3625,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="4" t="s">
+      <c r="J119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3624,28 +3672,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="4">
+      <c r="A121" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="4">
+      <c r="C121" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3670,28 +3718,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="4">
+      <c r="C123" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="4">
+      <c r="D123" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="4">
+      <c r="I123" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3779,10 +3827,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="4" t="s">
+      <c r="J126" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3826,28 +3874,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="4">
+      <c r="A128" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="4">
+      <c r="C128" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3872,28 +3920,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="4">
+      <c r="C130" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="4">
+      <c r="D130" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="4">
+      <c r="E130" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="4">
+      <c r="F130" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="4">
+      <c r="G130" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="4">
+      <c r="H130" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="4">
+      <c r="I130" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3952,10 +4000,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="4" t="s">
+      <c r="J132" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3999,28 +4047,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="4">
+      <c r="C134" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4045,28 +4093,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="4">
+      <c r="C136" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="4">
+      <c r="D136" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="4">
+      <c r="I136" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4125,10 +4173,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="4" t="s">
+      <c r="J138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4172,28 +4220,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="4">
+      <c r="A140" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="4">
+      <c r="C140" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4218,28 +4266,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="4">
+      <c r="I142" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4298,10 +4346,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4345,28 +4393,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4391,28 +4439,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4471,10 +4519,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="4" t="s">
+      <c r="J150" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4518,28 +4566,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="4">
+      <c r="A152" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="4">
+      <c r="C152" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4564,28 +4612,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="4">
+      <c r="I154" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4644,10 +4692,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="4" t="s">
+      <c r="J156" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4691,28 +4739,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="4">
+      <c r="C158" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4737,28 +4785,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4817,10 +4865,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4864,28 +4912,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="4">
+      <c r="C164" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4910,28 +4958,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4990,10 +5038,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5037,28 +5085,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5083,28 +5131,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5163,10 +5211,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="J174" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5210,28 +5258,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="A176" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="4">
+      <c r="C176" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5256,28 +5304,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="4">
+      <c r="I178" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5336,10 +5384,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="4" t="s">
+      <c r="J180" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5383,28 +5431,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="4">
+      <c r="A182" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="4">
+      <c r="C182" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5429,28 +5477,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="4">
+      <c r="C184" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="4">
+      <c r="D184" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="4">
+      <c r="I184" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5509,10 +5557,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="4" t="s">
+      <c r="J186" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5556,28 +5604,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="4">
+      <c r="A188" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="4">
+      <c r="C188" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="4">
+      <c r="G188" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="4">
+      <c r="H188" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5602,28 +5650,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="4">
+      <c r="C190" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="4">
+      <c r="D190" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="4">
+      <c r="I190" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5682,10 +5730,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="4" t="s">
+      <c r="J192" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5729,28 +5777,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="4">
+      <c r="A194" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="4">
+      <c r="C194" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="4">
+      <c r="G194" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="4">
+      <c r="H194" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5775,28 +5823,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="4">
+      <c r="C196" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="4">
+      <c r="D196" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="4">
+      <c r="G196" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="4">
+      <c r="H196" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="4">
+      <c r="I196" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5855,10 +5903,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="4" t="s">
+      <c r="J198" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5902,28 +5950,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="4">
+      <c r="A200" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="4">
+      <c r="C200" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="4">
+      <c r="E200" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="4">
+      <c r="F200" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="4">
+      <c r="G200" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="4">
+      <c r="H200" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5948,28 +5996,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="4">
+      <c r="B202" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="4">
+      <c r="C202" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="4">
+      <c r="D202" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="4">
+      <c r="E202" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="4">
+      <c r="F202" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="4">
+      <c r="G202" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="4">
+      <c r="H202" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="4">
+      <c r="I202" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6028,10 +6076,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="4" t="s">
+      <c r="J204" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6075,28 +6123,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="4">
+      <c r="A206" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="4">
+      <c r="C206" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6121,28 +6169,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="4">
+      <c r="B208" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="4">
+      <c r="C208" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="4">
+      <c r="D208" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="4">
+      <c r="E208" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="4">
+      <c r="F208" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="4">
+      <c r="G208" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="4">
+      <c r="H208" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="4">
+      <c r="I208" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6201,10 +6249,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="4" t="s">
+      <c r="J210" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6248,28 +6296,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="4">
+      <c r="C212" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6294,28 +6342,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="4">
+      <c r="C214" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="4">
+      <c r="D214" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="4">
+      <c r="I214" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6374,10 +6422,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="4" t="s">
+      <c r="J216" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6421,28 +6469,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="4">
+      <c r="A218" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="4">
+      <c r="C218" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6467,28 +6515,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="4">
+      <c r="C220" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="4">
+      <c r="D220" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="4">
+      <c r="G220" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="4">
+      <c r="H220" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="4">
+      <c r="I220" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6547,10 +6595,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="4" t="s">
+      <c r="J222" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6594,28 +6642,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="4">
+      <c r="A224" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="4">
+      <c r="C224" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="4">
+      <c r="E224" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="4">
+      <c r="F224" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="4">
+      <c r="G224" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="4">
+      <c r="H224" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6640,28 +6688,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="4">
+      <c r="C226" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="4">
+      <c r="D226" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="4">
+      <c r="E226" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="4">
+      <c r="F226" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="4">
+      <c r="G226" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="4">
+      <c r="H226" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="4">
+      <c r="I226" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6720,10 +6768,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="4" t="s">
+      <c r="J228" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6767,28 +6815,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="4">
+      <c r="A230" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="4">
+      <c r="B230" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="4">
+      <c r="C230" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="4">
+      <c r="E230" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="4">
+      <c r="F230" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="4">
+      <c r="G230" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="4">
+      <c r="H230" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6813,28 +6861,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="4">
+      <c r="B232" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="4">
+      <c r="C232" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="4">
+      <c r="D232" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="4">
+      <c r="E232" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="4">
+      <c r="F232" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="4">
+      <c r="G232" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="4">
+      <c r="H232" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="4">
+      <c r="I232" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6893,10 +6941,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="4" t="s">
+      <c r="J234" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6940,28 +6988,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="4">
+      <c r="A236" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="4">
+      <c r="C236" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="4">
+      <c r="E236" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="4">
+      <c r="F236" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="4">
+      <c r="G236" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="4">
+      <c r="H236" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6986,28 +7034,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="4">
+      <c r="B238" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="4">
+      <c r="C238" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="4">
+      <c r="D238" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="4">
+      <c r="E238" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="4">
+      <c r="F238" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="4">
+      <c r="G238" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="4">
+      <c r="H238" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="4">
+      <c r="I238" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7066,10 +7114,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="4" t="s">
+      <c r="J240" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7113,28 +7161,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="4">
+      <c r="A242" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="4">
+      <c r="C242" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7159,28 +7207,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="4">
+      <c r="C244" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="4">
+      <c r="D244" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="4">
+      <c r="I244" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7239,10 +7287,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="4" t="s">
+      <c r="J246" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7286,28 +7334,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="4">
+      <c r="A248" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="4">
+      <c r="B248" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="4">
+      <c r="C248" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="4">
+      <c r="G248" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="4">
+      <c r="H248" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7332,28 +7380,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="4">
+      <c r="B250" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="4">
+      <c r="C250" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="4">
+      <c r="D250" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="4">
+      <c r="E250" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="4">
+      <c r="F250" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="4">
+      <c r="G250" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="4">
+      <c r="H250" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="4">
+      <c r="I250" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7412,10 +7460,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="4" t="s">
+      <c r="J252" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7459,28 +7507,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="4">
+      <c r="A254" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="4">
+      <c r="C254" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7505,28 +7553,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="4">
+      <c r="C256" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="4">
+      <c r="D256" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="4">
+      <c r="G256" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="4">
+      <c r="H256" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="4">
+      <c r="I256" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7585,10 +7633,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="4" t="s">
+      <c r="J258" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7632,28 +7680,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="4">
+      <c r="A260" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="4">
+      <c r="B260" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="4">
+      <c r="C260" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="4">
+      <c r="E260" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="4">
+      <c r="F260" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="4">
+      <c r="G260" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="4">
+      <c r="H260" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7678,28 +7726,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="4">
+      <c r="C262" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="4">
+      <c r="D262" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="4">
+      <c r="I262" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7758,10 +7806,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="4" t="s">
+      <c r="J264" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7805,28 +7853,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="4">
+      <c r="A266" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="4">
+      <c r="B266" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="4">
+      <c r="C266" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="4">
+      <c r="E266" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="4">
+      <c r="F266" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="4">
+      <c r="G266" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="4">
+      <c r="H266" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7851,28 +7899,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="4">
+      <c r="C268" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="4">
+      <c r="D268" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="4">
+      <c r="I268" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7931,10 +7979,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="4" t="s">
+      <c r="J270" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7978,28 +8026,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="4">
+      <c r="A272" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="4">
+      <c r="B272" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="4">
+      <c r="C272" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="4">
+      <c r="E272" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="4">
+      <c r="F272" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="4">
+      <c r="G272" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="4">
+      <c r="H272" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8024,28 +8072,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="4">
+      <c r="C274" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="4">
+      <c r="D274" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="4">
+      <c r="I274" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8104,10 +8152,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="4" t="s">
+      <c r="J276" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8151,28 +8199,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="4">
+      <c r="A278" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="4">
+      <c r="B278" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="4">
+      <c r="C278" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="4">
+      <c r="E278" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="4">
+      <c r="F278" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="4">
+      <c r="G278" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="4">
+      <c r="H278" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8197,28 +8245,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="4">
+      <c r="B280" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="4">
+      <c r="C280" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="4">
+      <c r="D280" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="4">
+      <c r="E280" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="4">
+      <c r="F280" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="4">
+      <c r="G280" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="4">
+      <c r="H280" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="4">
+      <c r="I280" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8277,10 +8325,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="4" t="s">
+      <c r="J282" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8324,28 +8372,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="4">
+      <c r="A284" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="4">
+      <c r="C284" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="4">
+      <c r="E284" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="4">
+      <c r="F284" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="4">
+      <c r="G284" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="4">
+      <c r="H284" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8370,28 +8418,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="4">
+      <c r="B286" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="4">
+      <c r="C286" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="4">
+      <c r="D286" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="4">
+      <c r="E286" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="4">
+      <c r="F286" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="4">
+      <c r="G286" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="4">
+      <c r="H286" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="4">
+      <c r="I286" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8450,10 +8498,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="4" t="s">
+      <c r="J288" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8497,28 +8545,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="4">
+      <c r="A290" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="4">
+      <c r="B290" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="4">
+      <c r="C290" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="4">
+      <c r="E290" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="4">
+      <c r="F290" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="4">
+      <c r="G290" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="4">
+      <c r="H290" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8543,28 +8591,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="4">
+      <c r="C292" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="4">
+      <c r="D292" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="4">
+      <c r="E292" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="4">
+      <c r="F292" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="4">
+      <c r="G292" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="4">
+      <c r="H292" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="4">
+      <c r="I292" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8623,10 +8671,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="4" t="s">
+      <c r="J294" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8670,28 +8718,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="4">
+      <c r="A296" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="4">
+      <c r="B296" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="4">
+      <c r="C296" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="4">
+      <c r="E296" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="4">
+      <c r="F296" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="4">
+      <c r="G296" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="4">
+      <c r="H296" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8716,28 +8764,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="4">
+      <c r="B298" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="4">
+      <c r="C298" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="4">
+      <c r="D298" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="4">
+      <c r="E298" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="4">
+      <c r="F298" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="4">
+      <c r="G298" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="4">
+      <c r="H298" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="4">
+      <c r="I298" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8796,10 +8844,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="4" t="s">
+      <c r="J300" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8843,28 +8891,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="4">
+      <c r="A302" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="4">
+      <c r="B302" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="4">
+      <c r="C302" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="4">
+      <c r="E302" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="4">
+      <c r="F302" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="4">
+      <c r="G302" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="4">
+      <c r="H302" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8889,28 +8937,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="4">
+      <c r="B304" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="4">
+      <c r="C304" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="4">
+      <c r="D304" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="4">
+      <c r="E304" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="4">
+      <c r="F304" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="4">
+      <c r="G304" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="4">
+      <c r="H304" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="4">
+      <c r="I304" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8969,10 +9017,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="4" t="s">
+      <c r="J306" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9016,28 +9064,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="4">
+      <c r="A308" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="4">
+      <c r="B308" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="4">
+      <c r="C308" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="4">
+      <c r="E308" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="4">
+      <c r="F308" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="4">
+      <c r="G308" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="4">
+      <c r="H308" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9062,28 +9110,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="4">
+      <c r="B310" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="4">
+      <c r="C310" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="4">
+      <c r="D310" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="4">
+      <c r="E310" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="4">
+      <c r="F310" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="4">
+      <c r="G310" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="4">
+      <c r="H310" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="4">
+      <c r="I310" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9142,10 +9190,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="4" t="s">
+      <c r="J312" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9189,28 +9237,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="4">
+      <c r="A314" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="4">
+      <c r="B314" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="4">
+      <c r="C314" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="4">
+      <c r="E314" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="4">
+      <c r="F314" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="4">
+      <c r="G314" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="4">
+      <c r="H314" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9235,28 +9283,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="4">
+      <c r="B316" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="4">
+      <c r="C316" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="4">
+      <c r="D316" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="4">
+      <c r="E316" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="4">
+      <c r="F316" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="4">
+      <c r="G316" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="4">
+      <c r="H316" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="4">
+      <c r="I316" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9315,10 +9363,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="4" t="s">
+      <c r="J318" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9362,28 +9410,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="4">
+      <c r="A320" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="4">
+      <c r="B320" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="4">
+      <c r="C320" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="4">
+      <c r="E320" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="4">
+      <c r="F320" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="4">
+      <c r="G320" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="4">
+      <c r="H320" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9408,28 +9456,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="4">
+      <c r="B322" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="4">
+      <c r="C322" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="4">
+      <c r="D322" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="4">
+      <c r="E322" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="4">
+      <c r="F322" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="4">
+      <c r="G322" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="4">
+      <c r="H322" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="4">
+      <c r="I322" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9488,10 +9536,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="4" t="s">
+      <c r="J324" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9535,28 +9583,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="4">
+      <c r="A326" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="4">
+      <c r="B326" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="4">
+      <c r="C326" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="4">
+      <c r="E326" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="4">
+      <c r="F326" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="4">
+      <c r="G326" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="4">
+      <c r="H326" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9581,28 +9629,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="4">
+      <c r="B328" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="4">
+      <c r="C328" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="4">
+      <c r="D328" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="4">
+      <c r="E328" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="4">
+      <c r="F328" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="4">
+      <c r="G328" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="4">
+      <c r="H328" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="4">
+      <c r="I328" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9661,10 +9709,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="4" t="s">
+      <c r="J330" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9708,28 +9756,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="4">
+      <c r="A332" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="4">
+      <c r="B332" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="4">
+      <c r="C332" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="4">
+      <c r="E332" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="4">
+      <c r="F332" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="4">
+      <c r="G332" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="4">
+      <c r="H332" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9754,28 +9802,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="4">
+      <c r="B334" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="4">
+      <c r="C334" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="4">
+      <c r="D334" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="4">
+      <c r="E334" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="4">
+      <c r="F334" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="4">
+      <c r="G334" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="4">
+      <c r="H334" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="4">
+      <c r="I334" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9892,10 +9940,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="4" t="s">
+      <c r="J338" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9939,28 +9987,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="4">
+      <c r="A340" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="4">
+      <c r="B340" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="4">
+      <c r="C340" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="4">
+      <c r="E340" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="4">
+      <c r="F340" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="4">
+      <c r="G340" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="4">
+      <c r="H340" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9985,28 +10033,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="4">
+      <c r="B342" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="4">
+      <c r="C342" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="4">
+      <c r="D342" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="4">
+      <c r="E342" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="4">
+      <c r="F342" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="4">
+      <c r="G342" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="4">
+      <c r="H342" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="4">
+      <c r="I342" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10123,10 +10171,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="4" t="s">
+      <c r="J346" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10170,28 +10218,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="4">
+      <c r="A348" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="4">
+      <c r="B348" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="4">
+      <c r="C348" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="4">
+      <c r="E348" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="4">
+      <c r="F348" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="4">
+      <c r="G348" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="4">
+      <c r="H348" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10216,28 +10264,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="4">
+      <c r="B350" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="4">
+      <c r="C350" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="4">
+      <c r="D350" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="4">
+      <c r="E350" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="4">
+      <c r="F350" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="4">
+      <c r="G350" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="4">
+      <c r="H350" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="4">
+      <c r="I350" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10296,10 +10344,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="4" t="s">
+      <c r="J352" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10343,28 +10391,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="4">
+      <c r="A354" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="4">
+      <c r="B354" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="4">
+      <c r="C354" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="4">
+      <c r="E354" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="4">
+      <c r="F354" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="4">
+      <c r="G354" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="4">
+      <c r="H354" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10389,28 +10437,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="4">
+      <c r="B356" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="4">
+      <c r="C356" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="4">
+      <c r="D356" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="4">
+      <c r="E356" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="4">
+      <c r="F356" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="4">
+      <c r="G356" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="4">
+      <c r="H356" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="4">
+      <c r="I356" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10498,10 +10546,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="4" t="s">
+      <c r="J359" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10545,28 +10593,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="4">
+      <c r="A361" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="4">
+      <c r="B361" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="4">
+      <c r="C361" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="4">
+      <c r="E361" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="4">
+      <c r="F361" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="4">
+      <c r="G361" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="4">
+      <c r="H361" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10591,28 +10639,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="4">
+      <c r="B363" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="4">
+      <c r="C363" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="4">
+      <c r="D363" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="4">
+      <c r="E363" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="4">
+      <c r="F363" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="4">
+      <c r="G363" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="4">
+      <c r="H363" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="4">
+      <c r="I363" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10700,10 +10748,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="4" t="s">
+      <c r="J366" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10747,28 +10795,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="4">
+      <c r="A368" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="4">
+      <c r="B368" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="4">
+      <c r="C368" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="4">
+      <c r="E368" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="4">
+      <c r="F368" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="4">
+      <c r="G368" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="4">
+      <c r="H368" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10793,28 +10841,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="4">
+      <c r="B370" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="4">
+      <c r="C370" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="4">
+      <c r="D370" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="4">
+      <c r="E370" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="4">
+      <c r="F370" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="4">
+      <c r="G370" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="4">
+      <c r="H370" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="4">
+      <c r="I370" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10902,10 +10950,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="4" t="s">
+      <c r="J373" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10949,28 +10997,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="4">
+      <c r="A375" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="4">
+      <c r="B375" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="4">
+      <c r="C375" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="4">
+      <c r="E375" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="4">
+      <c r="F375" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="4">
+      <c r="G375" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="4">
+      <c r="H375" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10995,28 +11043,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="4">
+      <c r="B377" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="4">
+      <c r="C377" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="4">
+      <c r="D377" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="4">
+      <c r="E377" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="4">
+      <c r="F377" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="4">
+      <c r="G377" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="4">
+      <c r="H377" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="4">
+      <c r="I377" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11104,10 +11152,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="4" t="s">
+      <c r="J380" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11151,28 +11199,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="4">
+      <c r="A382" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="4">
+      <c r="B382" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="4">
+      <c r="C382" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="4">
+      <c r="E382" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="4">
+      <c r="F382" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="4">
+      <c r="G382" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="4">
+      <c r="H382" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11197,28 +11245,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="4">
+      <c r="B384" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="4">
+      <c r="C384" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="4">
+      <c r="D384" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="4">
+      <c r="E384" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="4">
+      <c r="F384" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="4">
+      <c r="G384" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="4">
+      <c r="H384" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="4">
+      <c r="I384" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11306,10 +11354,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="4" t="s">
+      <c r="J387" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11353,28 +11401,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="4">
+      <c r="A389" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="4">
+      <c r="B389" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="4">
+      <c r="C389" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="4">
+      <c r="E389" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="4">
+      <c r="F389" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="4">
+      <c r="G389" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="4">
+      <c r="H389" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11399,28 +11447,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="4">
+      <c r="B391" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="4">
+      <c r="C391" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="4">
+      <c r="D391" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="4">
+      <c r="E391" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="4">
+      <c r="F391" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="4">
+      <c r="G391" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="4">
+      <c r="H391" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="4">
+      <c r="I391" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11508,10 +11556,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="4" t="s">
+      <c r="J394" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11555,28 +11603,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="4">
+      <c r="A396" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="4">
+      <c r="B396" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="4">
+      <c r="C396" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="4">
+      <c r="E396" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="4">
+      <c r="F396" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="4">
+      <c r="G396" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="4">
+      <c r="H396" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11601,28 +11649,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="4">
+      <c r="B398" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="4">
+      <c r="C398" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="4">
+      <c r="D398" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="4">
+      <c r="E398" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="4">
+      <c r="F398" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="4">
+      <c r="G398" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="4">
+      <c r="H398" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="4">
+      <c r="I398" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11681,10 +11729,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="4" t="s">
+      <c r="J400" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11728,28 +11776,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="4">
+      <c r="A402" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="4">
+      <c r="B402" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="4">
+      <c r="C402" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="4">
+      <c r="E402" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="4">
+      <c r="F402" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="4">
+      <c r="G402" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="4">
+      <c r="H402" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11774,28 +11822,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="4">
+      <c r="B404" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="4">
+      <c r="C404" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="4">
+      <c r="D404" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="4">
+      <c r="E404" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="4">
+      <c r="F404" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="4">
+      <c r="G404" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="4">
+      <c r="H404" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="4">
+      <c r="I404" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11854,10 +11902,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="4" t="s">
+      <c r="J406" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11901,28 +11949,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="4">
+      <c r="A408" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="4">
+      <c r="B408" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="4">
+      <c r="C408" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="4">
+      <c r="E408" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="4">
+      <c r="F408" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="4">
+      <c r="G408" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="4">
+      <c r="H408" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11947,28 +11995,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="4">
+      <c r="B410" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="4">
+      <c r="C410" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="4">
+      <c r="D410" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="4">
+      <c r="E410" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="4">
+      <c r="F410" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="4">
+      <c r="G410" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="4">
+      <c r="H410" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="4">
+      <c r="I410" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12027,10 +12075,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="4" t="s">
+      <c r="J412" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12074,28 +12122,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="4">
+      <c r="A414" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="4">
+      <c r="B414" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="4">
+      <c r="C414" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="4">
+      <c r="E414" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="4">
+      <c r="F414" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="4">
+      <c r="G414" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="4">
+      <c r="H414" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12120,28 +12168,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="4">
+      <c r="B416" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="4">
+      <c r="C416" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="4">
+      <c r="D416" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="4">
+      <c r="E416" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="4">
+      <c r="F416" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="4">
+      <c r="G416" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="4">
+      <c r="H416" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="4">
+      <c r="I416" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12200,10 +12248,10 @@
       <c r="I418">
         <f>((C418-C417)^2+(D418- D417)^2)^.5</f>
       </c>
-      <c r="J418" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K418" s="4" t="s">
+      <c r="J418" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K418" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L418" t="n">
@@ -12247,28 +12295,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="s" s="4">
+      <c r="A420" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B420" t="s" s="4">
+      <c r="B420" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C420" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D420" t="s" s="4">
+      <c r="C420" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E420" t="s" s="4">
+      <c r="E420" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F420" t="s" s="4">
+      <c r="F420" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G420" t="s" s="4">
+      <c r="G420" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H420" t="s" s="4">
+      <c r="H420" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12293,28 +12341,28 @@
       </c>
     </row>
     <row r="422">
-      <c r="B422" t="s" s="4">
+      <c r="B422" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C422" t="s" s="4">
+      <c r="C422" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D422" t="s" s="4">
+      <c r="D422" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E422" t="s" s="4">
+      <c r="E422" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F422" t="s" s="4">
+      <c r="F422" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G422" t="s" s="4">
+      <c r="G422" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H422" t="s" s="4">
+      <c r="H422" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I422" t="s" s="4">
+      <c r="I422" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12373,10 +12421,10 @@
       <c r="I424">
         <f>((C424-C423)^2+(D424- D423)^2)^.5</f>
       </c>
-      <c r="J424" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K424" s="4" t="s">
+      <c r="J424" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K424" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L424" t="n">
@@ -12420,28 +12468,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="s" s="4">
+      <c r="A426" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B426" t="s" s="4">
+      <c r="B426" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C426" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D426" t="s" s="4">
+      <c r="C426" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E426" t="s" s="4">
+      <c r="E426" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F426" t="s" s="4">
+      <c r="F426" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G426" t="s" s="4">
+      <c r="G426" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H426" t="s" s="4">
+      <c r="H426" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12466,28 +12514,28 @@
       </c>
     </row>
     <row r="428">
-      <c r="B428" t="s" s="4">
+      <c r="B428" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C428" t="s" s="4">
+      <c r="C428" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D428" t="s" s="4">
+      <c r="D428" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E428" t="s" s="4">
+      <c r="E428" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F428" t="s" s="4">
+      <c r="F428" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G428" t="s" s="4">
+      <c r="G428" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H428" t="s" s="4">
+      <c r="H428" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I428" t="s" s="4">
+      <c r="I428" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12546,10 +12594,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="4" t="s">
+      <c r="J430" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12593,28 +12641,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="4">
+      <c r="A432" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="4">
+      <c r="B432" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="4">
+      <c r="C432" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="4">
+      <c r="E432" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="4">
+      <c r="F432" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="4">
+      <c r="G432" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="4">
+      <c r="H432" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12639,28 +12687,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="4">
+      <c r="B434" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="4">
+      <c r="C434" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="4">
+      <c r="D434" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="4">
+      <c r="E434" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="4">
+      <c r="F434" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="4">
+      <c r="G434" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="4">
+      <c r="H434" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="4">
+      <c r="I434" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12719,10 +12767,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="4" t="s">
+      <c r="J436" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14664" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18330" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -479,10 +497,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -526,28 +544,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="12">
+      <c r="A12" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="12">
+      <c r="C12" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -572,28 +590,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="12">
+      <c r="B14" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E14" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="12">
+      <c r="F14" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="12">
+      <c r="H14" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="12">
+      <c r="I14" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -681,10 +699,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="J17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -728,28 +746,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="12">
+      <c r="A19" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="12">
+      <c r="C19" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -774,28 +792,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="12">
+      <c r="I21" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -854,10 +872,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -901,28 +919,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="12">
+      <c r="A25" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="12">
+      <c r="C25" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="12">
+      <c r="F25" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="12">
+      <c r="G25" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="12">
+      <c r="H25" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -947,28 +965,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C27" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="D27" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E27" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="12">
+      <c r="F27" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="12">
+      <c r="G27" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="12">
+      <c r="H27" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="12">
+      <c r="I27" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1027,10 +1045,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="12" t="s">
+      <c r="J29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1074,28 +1092,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="12">
+      <c r="A31" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="12">
+      <c r="C31" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1120,28 +1138,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C33" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D33" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="12">
+      <c r="I33" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1247,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="J36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1276,28 +1294,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="12">
+      <c r="A38" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="12">
+      <c r="C38" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1340,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C40" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="12">
+      <c r="I40" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1478,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="12" t="s">
+      <c r="J44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1507,28 +1525,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="12">
+      <c r="A46" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="12">
+      <c r="C46" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1571,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="12">
+      <c r="C48" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="12">
+      <c r="D48" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="12">
+      <c r="I48" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1662,10 +1680,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="12" t="s">
+      <c r="J51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1709,28 +1727,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="12">
+      <c r="A53" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="12">
+      <c r="B53" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="12">
+      <c r="C53" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="12">
+      <c r="E53" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="12">
+      <c r="F53" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="12">
+      <c r="G53" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="12">
+      <c r="H53" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1755,28 +1773,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="12">
+      <c r="C55" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="12">
+      <c r="D55" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="12">
+      <c r="I55" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1864,10 +1882,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="12" t="s">
+      <c r="J58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1911,28 +1929,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="12">
+      <c r="A60" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="12">
+      <c r="C60" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1957,28 +1975,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="12">
+      <c r="C62" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="12">
+      <c r="D62" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="12">
+      <c r="I62" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2095,10 +2113,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="12" t="s">
+      <c r="J66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2142,28 +2160,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="12">
+      <c r="A68" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="12">
+      <c r="C68" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2188,28 +2206,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="12">
+      <c r="C70" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="12">
+      <c r="D70" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="12">
+      <c r="I70" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2297,10 +2315,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="12" t="s">
+      <c r="J73" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2344,28 +2362,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="12">
+      <c r="A75" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="12">
+      <c r="C75" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2390,28 +2408,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="12">
+      <c r="C77" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="12">
+      <c r="D77" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="12">
+      <c r="I77" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2499,10 +2517,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="12" t="s">
+      <c r="J80" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2546,28 +2564,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="12">
+      <c r="A82" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="12">
+      <c r="B82" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="12">
+      <c r="C82" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="12">
+      <c r="E82" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="12">
+      <c r="F82" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="12">
+      <c r="G82" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="12">
+      <c r="H82" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2592,28 +2610,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="12">
+      <c r="C84" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="12">
+      <c r="D84" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="12">
+      <c r="I84" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2730,10 +2748,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="12" t="s">
+      <c r="J88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2777,28 +2795,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="12">
+      <c r="A90" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="12">
+      <c r="C90" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2823,28 +2841,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="12">
+      <c r="C92" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="12">
+      <c r="D92" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="12">
+      <c r="E92" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="12">
+      <c r="F92" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="12">
+      <c r="I92" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2990,10 +3008,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="12" t="s">
+      <c r="J97" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -3037,28 +3055,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="12">
+      <c r="A99" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="12">
+      <c r="C99" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3083,28 +3101,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="12">
+      <c r="C101" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="12">
+      <c r="D101" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="12">
+      <c r="F101" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="12">
+      <c r="G101" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="12">
+      <c r="I101" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3192,10 +3210,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="12" t="s">
+      <c r="J104" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3239,28 +3257,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="12">
+      <c r="A106" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="12">
+      <c r="B106" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="12">
+      <c r="C106" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="12">
+      <c r="E106" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="12">
+      <c r="F106" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="12">
+      <c r="G106" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="12">
+      <c r="H106" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3285,28 +3303,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="12">
+      <c r="C108" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="12">
+      <c r="D108" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="12">
+      <c r="I108" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3423,10 +3441,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="12" t="s">
+      <c r="J112" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3470,28 +3488,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="12">
+      <c r="A114" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="12">
+      <c r="C114" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="12">
+      <c r="F114" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3516,28 +3534,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="12">
+      <c r="C116" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="12">
+      <c r="D116" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="12">
+      <c r="I116" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3625,10 +3643,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="12" t="s">
+      <c r="J119" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3672,28 +3690,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="12">
+      <c r="A121" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="12">
+      <c r="C121" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3718,28 +3736,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="12">
+      <c r="C123" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="12">
+      <c r="D123" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="12">
+      <c r="I123" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3827,10 +3845,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="12" t="s">
+      <c r="J126" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3874,28 +3892,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="12">
+      <c r="A128" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="12">
+      <c r="C128" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3920,28 +3938,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="12">
+      <c r="B130" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="12">
+      <c r="C130" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="12">
+      <c r="D130" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="12">
+      <c r="E130" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="12">
+      <c r="F130" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="12">
+      <c r="G130" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="12">
+      <c r="H130" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="12">
+      <c r="I130" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4000,10 +4018,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="12" t="s">
+      <c r="J132" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4047,28 +4065,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="12">
+      <c r="A134" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="12">
+      <c r="C134" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4093,28 +4111,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="12">
+      <c r="C136" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="12">
+      <c r="D136" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="12">
+      <c r="I136" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4173,10 +4191,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="12" t="s">
+      <c r="J138" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4220,28 +4238,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="12">
+      <c r="A140" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="12">
+      <c r="C140" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4266,28 +4284,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="12">
+      <c r="I142" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4346,10 +4364,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4393,28 +4411,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4439,28 +4457,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4519,10 +4537,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="12" t="s">
+      <c r="J150" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4566,28 +4584,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="12">
+      <c r="A152" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="12">
+      <c r="C152" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4612,28 +4630,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="12">
+      <c r="I154" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4692,10 +4710,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="12" t="s">
+      <c r="J156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4739,28 +4757,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="12">
+      <c r="C158" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4785,28 +4803,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4865,10 +4883,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="12" t="s">
+      <c r="J162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4912,28 +4930,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="12">
+      <c r="C164" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4958,28 +4976,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5038,10 +5056,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5085,28 +5103,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5131,28 +5149,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5211,10 +5229,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="12" t="s">
+      <c r="J174" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5258,28 +5276,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="12">
+      <c r="A176" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="12">
+      <c r="C176" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5304,28 +5322,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="12">
+      <c r="I178" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5384,10 +5402,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="12" t="s">
+      <c r="J180" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5431,28 +5449,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="12">
+      <c r="A182" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="12">
+      <c r="C182" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5477,28 +5495,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="12">
+      <c r="C184" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="12">
+      <c r="D184" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="12">
+      <c r="I184" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5557,10 +5575,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="12" t="s">
+      <c r="J186" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5604,28 +5622,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="12">
+      <c r="A188" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="12">
+      <c r="B188" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="12">
+      <c r="C188" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="12">
+      <c r="E188" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="12">
+      <c r="F188" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="12">
+      <c r="G188" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="12">
+      <c r="H188" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5650,28 +5668,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="12">
+      <c r="C190" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="12">
+      <c r="D190" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="12">
+      <c r="I190" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5730,10 +5748,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="12" t="s">
+      <c r="J192" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5777,28 +5795,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="12">
+      <c r="A194" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="12">
+      <c r="B194" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="12">
+      <c r="C194" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="12">
+      <c r="E194" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="12">
+      <c r="F194" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="12">
+      <c r="G194" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="12">
+      <c r="H194" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5823,28 +5841,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="12">
+      <c r="B196" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="12">
+      <c r="C196" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="12">
+      <c r="D196" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="12">
+      <c r="E196" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="12">
+      <c r="F196" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="12">
+      <c r="G196" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="12">
+      <c r="H196" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="12">
+      <c r="I196" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5903,10 +5921,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="12" t="s">
+      <c r="J198" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5950,28 +5968,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="12">
+      <c r="A200" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="12">
+      <c r="B200" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="12">
+      <c r="C200" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="12">
+      <c r="E200" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="12">
+      <c r="F200" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="12">
+      <c r="G200" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="12">
+      <c r="H200" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5996,28 +6014,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="12">
+      <c r="B202" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="12">
+      <c r="C202" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="12">
+      <c r="D202" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="12">
+      <c r="E202" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="12">
+      <c r="F202" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="12">
+      <c r="G202" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="12">
+      <c r="H202" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="12">
+      <c r="I202" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6076,10 +6094,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="12" t="s">
+      <c r="J204" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6123,28 +6141,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="12">
+      <c r="A206" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="12">
+      <c r="C206" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6169,28 +6187,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="12">
+      <c r="B208" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="12">
+      <c r="C208" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="12">
+      <c r="D208" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="12">
+      <c r="E208" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="12">
+      <c r="F208" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="12">
+      <c r="G208" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="12">
+      <c r="H208" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="12">
+      <c r="I208" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6249,10 +6267,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="12" t="s">
+      <c r="J210" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6296,28 +6314,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="12">
+      <c r="A212" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="12">
+      <c r="C212" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6342,28 +6360,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="12">
+      <c r="C214" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="12">
+      <c r="D214" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="12">
+      <c r="I214" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6422,10 +6440,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="12" t="s">
+      <c r="J216" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6469,28 +6487,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="12">
+      <c r="A218" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="12">
+      <c r="C218" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6515,28 +6533,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="12">
+      <c r="C220" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="12">
+      <c r="D220" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="12">
+      <c r="E220" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="12">
+      <c r="F220" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="12">
+      <c r="G220" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="12">
+      <c r="H220" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="12">
+      <c r="I220" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6595,10 +6613,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="12" t="s">
+      <c r="J222" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6642,28 +6660,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="12">
+      <c r="A224" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="12">
+      <c r="B224" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="12">
+      <c r="C224" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="12">
+      <c r="E224" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="12">
+      <c r="F224" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="12">
+      <c r="G224" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="12">
+      <c r="H224" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6688,28 +6706,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="12">
+      <c r="B226" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="12">
+      <c r="C226" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="12">
+      <c r="D226" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="12">
+      <c r="E226" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="12">
+      <c r="F226" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="12">
+      <c r="G226" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="12">
+      <c r="H226" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="12">
+      <c r="I226" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6768,10 +6786,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="12" t="s">
+      <c r="J228" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6815,28 +6833,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="12">
+      <c r="A230" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="12">
+      <c r="B230" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="12">
+      <c r="C230" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="12">
+      <c r="E230" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="12">
+      <c r="F230" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="12">
+      <c r="G230" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="12">
+      <c r="H230" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6861,28 +6879,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="12">
+      <c r="B232" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="12">
+      <c r="C232" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="12">
+      <c r="D232" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="12">
+      <c r="E232" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="12">
+      <c r="F232" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="12">
+      <c r="G232" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="12">
+      <c r="H232" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="12">
+      <c r="I232" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6941,10 +6959,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="12" t="s">
+      <c r="J234" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6988,28 +7006,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="12">
+      <c r="A236" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="12">
+      <c r="B236" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="12">
+      <c r="C236" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="12">
+      <c r="E236" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="12">
+      <c r="F236" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="12">
+      <c r="G236" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="12">
+      <c r="H236" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7034,28 +7052,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="12">
+      <c r="C238" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="12">
+      <c r="D238" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="12">
+      <c r="E238" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="12">
+      <c r="F238" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="12">
+      <c r="G238" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="12">
+      <c r="H238" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="12">
+      <c r="I238" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7114,10 +7132,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="12" t="s">
+      <c r="J240" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7161,28 +7179,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="12">
+      <c r="A242" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="12">
+      <c r="C242" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7207,28 +7225,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="12">
+      <c r="C244" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="12">
+      <c r="D244" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="12">
+      <c r="I244" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7287,10 +7305,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="12" t="s">
+      <c r="J246" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7334,28 +7352,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="12">
+      <c r="A248" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="12">
+      <c r="C248" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="12">
+      <c r="E248" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="12">
+      <c r="F248" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="12">
+      <c r="G248" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="12">
+      <c r="H248" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7380,28 +7398,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="12">
+      <c r="C250" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="12">
+      <c r="D250" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="12">
+      <c r="E250" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="12">
+      <c r="F250" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="12">
+      <c r="G250" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="12">
+      <c r="H250" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="12">
+      <c r="I250" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7460,10 +7478,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="12" t="s">
+      <c r="J252" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7507,28 +7525,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="12">
+      <c r="A254" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="12">
+      <c r="C254" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7553,28 +7571,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="12">
+      <c r="C256" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="12">
+      <c r="D256" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="12">
+      <c r="E256" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="12">
+      <c r="F256" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="12">
+      <c r="G256" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="12">
+      <c r="H256" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="12">
+      <c r="I256" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7633,10 +7651,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="12" t="s">
+      <c r="J258" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7680,28 +7698,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="12">
+      <c r="A260" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="12">
+      <c r="B260" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="12">
+      <c r="C260" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="12">
+      <c r="E260" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="12">
+      <c r="F260" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="12">
+      <c r="G260" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="12">
+      <c r="H260" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7726,28 +7744,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="12">
+      <c r="C262" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="12">
+      <c r="D262" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="12">
+      <c r="I262" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7806,10 +7824,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="12" t="s">
+      <c r="J264" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7853,28 +7871,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="12">
+      <c r="A266" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="12">
+      <c r="B266" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="12">
+      <c r="C266" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="12">
+      <c r="E266" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="12">
+      <c r="F266" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="12">
+      <c r="G266" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="12">
+      <c r="H266" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7899,28 +7917,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="12">
+      <c r="C268" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="12">
+      <c r="D268" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="12">
+      <c r="I268" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7979,10 +7997,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="12" t="s">
+      <c r="J270" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -8026,28 +8044,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="12">
+      <c r="A272" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="12">
+      <c r="B272" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="12">
+      <c r="C272" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="12">
+      <c r="E272" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="12">
+      <c r="F272" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="12">
+      <c r="G272" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="12">
+      <c r="H272" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8072,28 +8090,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="12">
+      <c r="C274" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="12">
+      <c r="D274" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="12">
+      <c r="I274" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8152,10 +8170,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="12" t="s">
+      <c r="J276" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8199,28 +8217,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="12">
+      <c r="A278" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="12">
+      <c r="B278" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="12">
+      <c r="C278" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="12">
+      <c r="E278" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="12">
+      <c r="F278" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="12">
+      <c r="G278" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="12">
+      <c r="H278" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8245,28 +8263,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="12">
+      <c r="B280" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="12">
+      <c r="C280" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="12">
+      <c r="D280" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="12">
+      <c r="E280" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="12">
+      <c r="F280" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="12">
+      <c r="G280" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="12">
+      <c r="H280" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="12">
+      <c r="I280" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8325,10 +8343,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="12" t="s">
+      <c r="J282" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8372,28 +8390,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="12">
+      <c r="A284" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="12">
+      <c r="B284" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="12">
+      <c r="C284" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="12">
+      <c r="E284" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="12">
+      <c r="F284" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="12">
+      <c r="G284" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="12">
+      <c r="H284" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8418,28 +8436,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="12">
+      <c r="B286" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="12">
+      <c r="C286" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="12">
+      <c r="D286" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="12">
+      <c r="E286" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="12">
+      <c r="F286" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="12">
+      <c r="G286" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="12">
+      <c r="H286" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="12">
+      <c r="I286" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8498,10 +8516,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="12" t="s">
+      <c r="J288" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8545,28 +8563,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="12">
+      <c r="A290" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="12">
+      <c r="C290" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="12">
+      <c r="E290" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="12">
+      <c r="F290" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="12">
+      <c r="G290" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="12">
+      <c r="H290" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8591,28 +8609,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="12">
+      <c r="C292" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="12">
+      <c r="D292" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="12">
+      <c r="E292" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="12">
+      <c r="F292" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="12">
+      <c r="G292" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="12">
+      <c r="H292" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="12">
+      <c r="I292" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8671,10 +8689,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="12" t="s">
+      <c r="J294" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8718,28 +8736,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="12">
+      <c r="A296" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="12">
+      <c r="B296" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="12">
+      <c r="C296" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="12">
+      <c r="E296" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="12">
+      <c r="F296" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="12">
+      <c r="G296" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="12">
+      <c r="H296" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8764,28 +8782,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="12">
+      <c r="C298" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="12">
+      <c r="D298" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="12">
+      <c r="E298" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="12">
+      <c r="F298" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="12">
+      <c r="G298" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="12">
+      <c r="H298" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="12">
+      <c r="I298" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8844,10 +8862,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="12" t="s">
+      <c r="J300" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8891,28 +8909,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="12">
+      <c r="A302" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="12">
+      <c r="B302" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="12">
+      <c r="C302" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="12">
+      <c r="E302" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="12">
+      <c r="F302" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="12">
+      <c r="G302" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="12">
+      <c r="H302" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8937,28 +8955,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="12">
+      <c r="B304" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="12">
+      <c r="C304" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="12">
+      <c r="D304" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="12">
+      <c r="E304" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="12">
+      <c r="F304" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="12">
+      <c r="G304" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="12">
+      <c r="H304" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="12">
+      <c r="I304" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9017,10 +9035,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="12" t="s">
+      <c r="J306" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9064,28 +9082,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="12">
+      <c r="A308" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="12">
+      <c r="B308" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="12">
+      <c r="C308" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="12">
+      <c r="E308" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="12">
+      <c r="F308" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="12">
+      <c r="G308" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="12">
+      <c r="H308" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9110,28 +9128,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="12">
+      <c r="B310" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="12">
+      <c r="C310" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="12">
+      <c r="D310" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="12">
+      <c r="E310" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="12">
+      <c r="F310" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="12">
+      <c r="G310" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="12">
+      <c r="H310" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="12">
+      <c r="I310" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9190,10 +9208,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="12" t="s">
+      <c r="J312" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9237,28 +9255,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="12">
+      <c r="A314" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="12">
+      <c r="B314" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="12">
+      <c r="C314" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="12">
+      <c r="E314" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="12">
+      <c r="F314" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="12">
+      <c r="G314" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="12">
+      <c r="H314" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9283,28 +9301,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="12">
+      <c r="B316" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="12">
+      <c r="C316" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="12">
+      <c r="D316" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="12">
+      <c r="E316" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="12">
+      <c r="F316" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="12">
+      <c r="G316" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="12">
+      <c r="H316" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="12">
+      <c r="I316" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9363,10 +9381,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="12" t="s">
+      <c r="J318" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9410,28 +9428,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="12">
+      <c r="A320" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="12">
+      <c r="B320" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="12">
+      <c r="C320" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="12">
+      <c r="E320" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="12">
+      <c r="F320" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="12">
+      <c r="G320" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="12">
+      <c r="H320" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9456,28 +9474,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="12">
+      <c r="B322" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="12">
+      <c r="C322" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="12">
+      <c r="D322" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="12">
+      <c r="E322" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="12">
+      <c r="F322" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="12">
+      <c r="G322" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="12">
+      <c r="H322" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="12">
+      <c r="I322" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9536,10 +9554,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="12" t="s">
+      <c r="J324" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9583,28 +9601,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="12">
+      <c r="A326" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="12">
+      <c r="B326" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="12">
+      <c r="C326" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="12">
+      <c r="E326" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="12">
+      <c r="F326" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="12">
+      <c r="G326" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="12">
+      <c r="H326" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9629,28 +9647,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="12">
+      <c r="B328" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="12">
+      <c r="C328" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="12">
+      <c r="D328" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="12">
+      <c r="E328" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="12">
+      <c r="F328" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="12">
+      <c r="G328" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="12">
+      <c r="H328" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="12">
+      <c r="I328" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9709,10 +9727,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="12" t="s">
+      <c r="J330" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9756,28 +9774,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="12">
+      <c r="A332" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="12">
+      <c r="B332" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="12">
+      <c r="C332" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="12">
+      <c r="E332" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="12">
+      <c r="F332" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="12">
+      <c r="G332" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="12">
+      <c r="H332" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9802,28 +9820,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="12">
+      <c r="B334" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="12">
+      <c r="C334" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="12">
+      <c r="D334" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="12">
+      <c r="E334" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="12">
+      <c r="F334" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="12">
+      <c r="G334" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="12">
+      <c r="H334" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="12">
+      <c r="I334" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9940,10 +9958,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="12" t="s">
+      <c r="J338" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9987,28 +10005,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="12">
+      <c r="A340" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="12">
+      <c r="B340" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="12">
+      <c r="C340" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="12">
+      <c r="E340" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="12">
+      <c r="F340" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="12">
+      <c r="G340" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="12">
+      <c r="H340" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10033,28 +10051,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="12">
+      <c r="B342" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="12">
+      <c r="C342" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="12">
+      <c r="D342" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="12">
+      <c r="E342" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="12">
+      <c r="F342" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="12">
+      <c r="G342" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="12">
+      <c r="H342" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="12">
+      <c r="I342" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10171,10 +10189,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="12" t="s">
+      <c r="J346" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10218,28 +10236,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="12">
+      <c r="A348" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="12">
+      <c r="B348" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="12">
+      <c r="C348" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="12">
+      <c r="E348" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="12">
+      <c r="F348" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="12">
+      <c r="G348" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="12">
+      <c r="H348" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10264,28 +10282,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="12">
+      <c r="B350" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="12">
+      <c r="C350" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="12">
+      <c r="D350" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="12">
+      <c r="E350" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="12">
+      <c r="F350" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="12">
+      <c r="G350" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="12">
+      <c r="H350" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="12">
+      <c r="I350" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10344,10 +10362,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="12" t="s">
+      <c r="J352" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10391,28 +10409,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="12">
+      <c r="A354" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="12">
+      <c r="B354" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="12">
+      <c r="C354" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="12">
+      <c r="E354" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="12">
+      <c r="F354" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="12">
+      <c r="G354" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="12">
+      <c r="H354" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10437,28 +10455,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="12">
+      <c r="B356" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="12">
+      <c r="C356" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="12">
+      <c r="D356" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="12">
+      <c r="E356" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="12">
+      <c r="F356" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="12">
+      <c r="G356" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="12">
+      <c r="H356" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="12">
+      <c r="I356" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10546,10 +10564,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="12" t="s">
+      <c r="J359" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10593,28 +10611,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="12">
+      <c r="A361" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="12">
+      <c r="B361" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="12">
+      <c r="C361" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="12">
+      <c r="E361" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="12">
+      <c r="F361" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="12">
+      <c r="G361" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="12">
+      <c r="H361" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10639,28 +10657,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="12">
+      <c r="B363" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="12">
+      <c r="C363" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="12">
+      <c r="D363" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="12">
+      <c r="E363" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="12">
+      <c r="F363" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="12">
+      <c r="G363" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="12">
+      <c r="H363" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="12">
+      <c r="I363" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10748,10 +10766,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="12" t="s">
+      <c r="J366" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10795,28 +10813,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="12">
+      <c r="A368" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="12">
+      <c r="B368" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="12">
+      <c r="C368" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="12">
+      <c r="E368" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="12">
+      <c r="F368" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="12">
+      <c r="G368" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="12">
+      <c r="H368" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10841,28 +10859,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="12">
+      <c r="B370" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="12">
+      <c r="C370" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="12">
+      <c r="D370" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="12">
+      <c r="E370" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="12">
+      <c r="F370" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="12">
+      <c r="G370" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="12">
+      <c r="H370" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="12">
+      <c r="I370" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10950,10 +10968,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="12" t="s">
+      <c r="J373" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10997,28 +11015,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="12">
+      <c r="A375" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="12">
+      <c r="B375" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="12">
+      <c r="C375" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="12">
+      <c r="E375" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="12">
+      <c r="F375" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="12">
+      <c r="G375" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="12">
+      <c r="H375" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11043,28 +11061,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="12">
+      <c r="B377" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="12">
+      <c r="C377" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="12">
+      <c r="D377" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="12">
+      <c r="E377" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="12">
+      <c r="F377" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="12">
+      <c r="G377" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="12">
+      <c r="H377" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="12">
+      <c r="I377" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11152,10 +11170,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="12" t="s">
+      <c r="J380" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11199,28 +11217,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="12">
+      <c r="A382" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="12">
+      <c r="B382" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="12">
+      <c r="C382" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="12">
+      <c r="E382" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="12">
+      <c r="F382" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="12">
+      <c r="G382" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="12">
+      <c r="H382" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11245,28 +11263,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="12">
+      <c r="B384" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="12">
+      <c r="C384" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="12">
+      <c r="D384" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="12">
+      <c r="E384" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="12">
+      <c r="F384" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="12">
+      <c r="G384" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="12">
+      <c r="H384" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="12">
+      <c r="I384" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11354,10 +11372,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="12" t="s">
+      <c r="J387" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11401,28 +11419,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="12">
+      <c r="A389" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="12">
+      <c r="B389" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="12">
+      <c r="C389" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="12">
+      <c r="E389" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="12">
+      <c r="F389" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="12">
+      <c r="G389" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="12">
+      <c r="H389" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11447,28 +11465,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="12">
+      <c r="B391" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="12">
+      <c r="C391" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="12">
+      <c r="D391" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="12">
+      <c r="E391" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="12">
+      <c r="F391" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="12">
+      <c r="G391" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="12">
+      <c r="H391" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="12">
+      <c r="I391" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11556,10 +11574,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="12" t="s">
+      <c r="J394" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11603,28 +11621,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="12">
+      <c r="A396" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="12">
+      <c r="B396" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="12">
+      <c r="C396" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="12">
+      <c r="E396" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="12">
+      <c r="F396" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="12">
+      <c r="G396" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="12">
+      <c r="H396" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11649,28 +11667,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="12">
+      <c r="B398" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="12">
+      <c r="C398" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="12">
+      <c r="D398" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="12">
+      <c r="E398" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="12">
+      <c r="F398" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="12">
+      <c r="G398" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="12">
+      <c r="H398" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="12">
+      <c r="I398" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11729,10 +11747,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="12" t="s">
+      <c r="J400" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11776,28 +11794,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="12">
+      <c r="A402" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="12">
+      <c r="B402" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="12">
+      <c r="C402" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="12">
+      <c r="E402" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="12">
+      <c r="F402" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="12">
+      <c r="G402" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="12">
+      <c r="H402" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11822,28 +11840,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="12">
+      <c r="B404" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="12">
+      <c r="C404" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="12">
+      <c r="D404" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="12">
+      <c r="E404" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="12">
+      <c r="F404" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="12">
+      <c r="G404" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="12">
+      <c r="H404" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="12">
+      <c r="I404" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11902,10 +11920,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="12" t="s">
+      <c r="J406" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11949,28 +11967,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="12">
+      <c r="A408" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="12">
+      <c r="B408" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="12">
+      <c r="C408" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="12">
+      <c r="E408" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="12">
+      <c r="F408" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="12">
+      <c r="G408" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="12">
+      <c r="H408" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11995,28 +12013,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="12">
+      <c r="B410" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="12">
+      <c r="C410" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="12">
+      <c r="D410" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="12">
+      <c r="E410" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="12">
+      <c r="F410" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="12">
+      <c r="G410" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="12">
+      <c r="H410" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="12">
+      <c r="I410" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12075,10 +12093,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="12" t="s">
+      <c r="J412" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12122,28 +12140,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="12">
+      <c r="A414" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="12">
+      <c r="B414" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="12">
+      <c r="C414" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="12">
+      <c r="E414" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="12">
+      <c r="F414" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="12">
+      <c r="G414" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="12">
+      <c r="H414" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12168,28 +12186,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="12">
+      <c r="B416" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="12">
+      <c r="C416" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="12">
+      <c r="D416" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="12">
+      <c r="E416" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="12">
+      <c r="F416" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="12">
+      <c r="G416" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="12">
+      <c r="H416" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="12">
+      <c r="I416" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12248,10 +12266,10 @@
       <c r="I418">
         <f>((C418-C417)^2+(D418- D417)^2)^.5</f>
       </c>
-      <c r="J418" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K418" s="12" t="s">
+      <c r="J418" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K418" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L418" t="n">
@@ -12295,28 +12313,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="s" s="12">
+      <c r="A420" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B420" t="s" s="12">
+      <c r="B420" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C420" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D420" t="s" s="12">
+      <c r="C420" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E420" t="s" s="12">
+      <c r="E420" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F420" t="s" s="12">
+      <c r="F420" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G420" t="s" s="12">
+      <c r="G420" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H420" t="s" s="12">
+      <c r="H420" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12341,28 +12359,28 @@
       </c>
     </row>
     <row r="422">
-      <c r="B422" t="s" s="12">
+      <c r="B422" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C422" t="s" s="12">
+      <c r="C422" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D422" t="s" s="12">
+      <c r="D422" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E422" t="s" s="12">
+      <c r="E422" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F422" t="s" s="12">
+      <c r="F422" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G422" t="s" s="12">
+      <c r="G422" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H422" t="s" s="12">
+      <c r="H422" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I422" t="s" s="12">
+      <c r="I422" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12421,10 +12439,10 @@
       <c r="I424">
         <f>((C424-C423)^2+(D424- D423)^2)^.5</f>
       </c>
-      <c r="J424" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K424" s="12" t="s">
+      <c r="J424" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K424" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L424" t="n">
@@ -12468,28 +12486,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="s" s="12">
+      <c r="A426" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B426" t="s" s="12">
+      <c r="B426" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C426" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D426" t="s" s="12">
+      <c r="C426" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E426" t="s" s="12">
+      <c r="E426" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F426" t="s" s="12">
+      <c r="F426" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G426" t="s" s="12">
+      <c r="G426" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H426" t="s" s="12">
+      <c r="H426" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12514,28 +12532,28 @@
       </c>
     </row>
     <row r="428">
-      <c r="B428" t="s" s="12">
+      <c r="B428" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C428" t="s" s="12">
+      <c r="C428" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D428" t="s" s="12">
+      <c r="D428" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E428" t="s" s="12">
+      <c r="E428" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F428" t="s" s="12">
+      <c r="F428" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G428" t="s" s="12">
+      <c r="G428" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H428" t="s" s="12">
+      <c r="H428" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I428" t="s" s="12">
+      <c r="I428" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12594,10 +12612,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="12" t="s">
+      <c r="J430" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12641,28 +12659,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="12">
+      <c r="A432" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="12">
+      <c r="B432" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="12">
+      <c r="C432" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="12">
+      <c r="E432" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="12">
+      <c r="F432" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="12">
+      <c r="G432" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="12">
+      <c r="H432" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12687,28 +12705,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="12">
+      <c r="B434" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="12">
+      <c r="C434" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="12">
+      <c r="D434" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="12">
+      <c r="E434" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="12">
+      <c r="F434" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="12">
+      <c r="G434" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="12">
+      <c r="H434" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="12">
+      <c r="I434" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12767,10 +12785,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="12" t="s">
+      <c r="J436" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">
